--- a/生成表格.xlsx
+++ b/生成表格.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Career\StudyAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7419CA49-E6DD-41E9-8269-2AC3AADC742E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E933FA45-F4BD-449B-88F3-03BC408B876D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{8E49AB2F-47EE-4EA5-B237-A6A292EE92CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{8E49AB2F-47EE-4EA5-B237-A6A292EE92CC}"/>
   </bookViews>
   <sheets>
     <sheet name="生成表格" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="136">
   <si>
     <t>Two Sum</t>
   </si>
@@ -857,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22CEC40-7B91-446E-87E3-C96D0A5A6828}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:G26"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -916,7 +917,7 @@
         <v>134</v>
       </c>
       <c r="H2" t="str">
-        <f>SUBSTITUTE(B2," ","")</f>
+        <f t="shared" ref="H2:H33" si="0">SUBSTITUTE(B2," ","")</f>
         <v>TwoSum</v>
       </c>
     </row>
@@ -931,11 +932,11 @@
         <v>110</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D52" si="0">"[Python3](LeetCode/"&amp;A3&amp;"."&amp;H3&amp;"/"&amp;A3&amp;"."&amp;H3&amp;".py)"</f>
+        <f t="shared" ref="D3:D52" si="1">"[Python3](LeetCode/"&amp;A3&amp;"."&amp;H3&amp;"/"&amp;A3&amp;"."&amp;H3&amp;".py)"</f>
         <v>[Python3](LeetCode/0002.AddTwoNumbers/0002.AddTwoNumbers.py)</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E52" si="1">"[解析](LeetCode/"&amp;A3&amp;"."&amp;H3&amp;"/"&amp;A3&amp;"."&amp;H3&amp;".md)"</f>
+        <f t="shared" ref="E3:E52" si="2">"[解析](LeetCode/"&amp;A3&amp;"."&amp;H3&amp;"/"&amp;A3&amp;"."&amp;H3&amp;".md)"</f>
         <v>[解析](LeetCode/0002.AddTwoNumbers/0002.AddTwoNumbers.md)</v>
       </c>
       <c r="F3" t="s">
@@ -945,7 +946,7 @@
         <v>59</v>
       </c>
       <c r="H3" t="str">
-        <f>SUBSTITUTE(B3," ","")</f>
+        <f t="shared" si="0"/>
         <v>AddTwoNumbers</v>
       </c>
     </row>
@@ -960,11 +961,11 @@
         <v>111</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0003.LongestSubstringWithoutRepeatingCharacters/0003.LongestSubstringWithoutRepeatingCharacters.py)</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0003.LongestSubstringWithoutRepeatingCharacters/0003.LongestSubstringWithoutRepeatingCharacters.md)</v>
       </c>
       <c r="F4" t="s">
@@ -974,7 +975,7 @@
         <v>60</v>
       </c>
       <c r="H4" t="str">
-        <f>SUBSTITUTE(B4," ","")</f>
+        <f t="shared" si="0"/>
         <v>LongestSubstringWithoutRepeatingCharacters</v>
       </c>
     </row>
@@ -989,11 +990,11 @@
         <v>112</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0005.LongestPalindromicSubstring/0005.LongestPalindromicSubstring.py)</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0005.LongestPalindromicSubstring/0005.LongestPalindromicSubstring.md)</v>
       </c>
       <c r="F5" t="s">
@@ -1003,7 +1004,7 @@
         <v>61</v>
       </c>
       <c r="H5" t="str">
-        <f>SUBSTITUTE(B5," ","")</f>
+        <f t="shared" si="0"/>
         <v>LongestPalindromicSubstring</v>
       </c>
     </row>
@@ -1018,11 +1019,11 @@
         <v>113</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0006.ZigZagConversion/0006.ZigZagConversion.py)</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0006.ZigZagConversion/0006.ZigZagConversion.md)</v>
       </c>
       <c r="F6" t="s">
@@ -1032,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="str">
-        <f>SUBSTITUTE(B6," ","")</f>
+        <f t="shared" si="0"/>
         <v>ZigZagConversion</v>
       </c>
     </row>
@@ -1047,11 +1048,11 @@
         <v>114</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0007.ReverseInteger/0007.ReverseInteger.py)</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0007.ReverseInteger/0007.ReverseInteger.md)</v>
       </c>
       <c r="F7" t="s">
@@ -1061,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="H7" t="str">
-        <f>SUBSTITUTE(B7," ","")</f>
+        <f t="shared" si="0"/>
         <v>ReverseInteger</v>
       </c>
     </row>
@@ -1076,11 +1077,11 @@
         <v>115</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0008.StringtoInteger(atoi)/0008.StringtoInteger(atoi).py)</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0008.StringtoInteger(atoi)/0008.StringtoInteger(atoi).md)</v>
       </c>
       <c r="F8" t="s">
@@ -1090,7 +1091,7 @@
         <v>62</v>
       </c>
       <c r="H8" t="str">
-        <f>SUBSTITUTE(B8," ","")</f>
+        <f t="shared" si="0"/>
         <v>StringtoInteger(atoi)</v>
       </c>
     </row>
@@ -1105,11 +1106,11 @@
         <v>116</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0009.PalindromeNumber/0009.PalindromeNumber.py)</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0009.PalindromeNumber/0009.PalindromeNumber.md)</v>
       </c>
       <c r="F9" t="s">
@@ -1119,7 +1120,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="str">
-        <f>SUBSTITUTE(B9," ","")</f>
+        <f t="shared" si="0"/>
         <v>PalindromeNumber</v>
       </c>
     </row>
@@ -1134,11 +1135,11 @@
         <v>117</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0010.RegularExpressionMatching/0010.RegularExpressionMatching.py)</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0010.RegularExpressionMatching/0010.RegularExpressionMatching.md)</v>
       </c>
       <c r="F10" t="s">
@@ -1148,7 +1149,7 @@
         <v>63</v>
       </c>
       <c r="H10" t="str">
-        <f>SUBSTITUTE(B10," ","")</f>
+        <f t="shared" si="0"/>
         <v>RegularExpressionMatching</v>
       </c>
     </row>
@@ -1163,11 +1164,11 @@
         <v>118</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0011.ContainerWithMostWater/0011.ContainerWithMostWater.py)</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0011.ContainerWithMostWater/0011.ContainerWithMostWater.md)</v>
       </c>
       <c r="F11" t="s">
@@ -1177,7 +1178,7 @@
         <v>64</v>
       </c>
       <c r="H11" t="str">
-        <f>SUBSTITUTE(B11," ","")</f>
+        <f t="shared" si="0"/>
         <v>ContainerWithMostWater</v>
       </c>
     </row>
@@ -1192,11 +1193,11 @@
         <v>119</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0012.IntegertoRoman/0012.IntegertoRoman.py)</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0012.IntegertoRoman/0012.IntegertoRoman.md)</v>
       </c>
       <c r="F12" t="s">
@@ -1206,7 +1207,7 @@
         <v>62</v>
       </c>
       <c r="H12" t="str">
-        <f>SUBSTITUTE(B12," ","")</f>
+        <f t="shared" si="0"/>
         <v>IntegertoRoman</v>
       </c>
     </row>
@@ -1221,11 +1222,11 @@
         <v>120</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0013.RomantoInteger/0013.RomantoInteger.py)</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0013.RomantoInteger/0013.RomantoInteger.md)</v>
       </c>
       <c r="F13" t="s">
@@ -1235,7 +1236,7 @@
         <v>62</v>
       </c>
       <c r="H13" t="str">
-        <f>SUBSTITUTE(B13," ","")</f>
+        <f t="shared" si="0"/>
         <v>RomantoInteger</v>
       </c>
     </row>
@@ -1250,11 +1251,11 @@
         <v>121</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0014.LongestCommonPrefix/0014.LongestCommonPrefix.py)</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0014.LongestCommonPrefix/0014.LongestCommonPrefix.md)</v>
       </c>
       <c r="F14" t="s">
@@ -1264,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="str">
-        <f>SUBSTITUTE(B14," ","")</f>
+        <f t="shared" si="0"/>
         <v>LongestCommonPrefix</v>
       </c>
     </row>
@@ -1279,11 +1280,11 @@
         <v>122</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0015.3Sum/0015.3Sum.py)</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0015.3Sum/0015.3Sum.md)</v>
       </c>
       <c r="F15" t="s">
@@ -1293,7 +1294,7 @@
         <v>64</v>
       </c>
       <c r="H15" t="str">
-        <f>SUBSTITUTE(B15," ","")</f>
+        <f t="shared" si="0"/>
         <v>3Sum</v>
       </c>
     </row>
@@ -1308,11 +1309,11 @@
         <v>123</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0016.3SumClosest/0016.3SumClosest.py)</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0016.3SumClosest/0016.3SumClosest.md)</v>
       </c>
       <c r="F16" t="s">
@@ -1322,7 +1323,7 @@
         <v>64</v>
       </c>
       <c r="H16" t="str">
-        <f>SUBSTITUTE(B16," ","")</f>
+        <f t="shared" si="0"/>
         <v>3SumClosest</v>
       </c>
     </row>
@@ -1337,11 +1338,11 @@
         <v>124</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0017.LetterCombinationsofaPhoneNumber/0017.LetterCombinationsofaPhoneNumber.py)</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0017.LetterCombinationsofaPhoneNumber/0017.LetterCombinationsofaPhoneNumber.md)</v>
       </c>
       <c r="F17" t="s">
@@ -1351,7 +1352,7 @@
         <v>65</v>
       </c>
       <c r="H17" t="str">
-        <f>SUBSTITUTE(B17," ","")</f>
+        <f t="shared" si="0"/>
         <v>LetterCombinationsofaPhoneNumber</v>
       </c>
     </row>
@@ -1366,11 +1367,11 @@
         <v>125</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0019.RemoveNthNodeFromEndofList/0019.RemoveNthNodeFromEndofList.py)</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0019.RemoveNthNodeFromEndofList/0019.RemoveNthNodeFromEndofList.md)</v>
       </c>
       <c r="F18" t="s">
@@ -1380,7 +1381,7 @@
         <v>66</v>
       </c>
       <c r="H18" t="str">
-        <f>SUBSTITUTE(B18," ","")</f>
+        <f t="shared" si="0"/>
         <v>RemoveNthNodeFromEndofList</v>
       </c>
     </row>
@@ -1395,11 +1396,11 @@
         <v>126</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0020.ValidParentheses/0020.ValidParentheses.py)</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0020.ValidParentheses/0020.ValidParentheses.md)</v>
       </c>
       <c r="F19" t="s">
@@ -1409,7 +1410,7 @@
         <v>67</v>
       </c>
       <c r="H19" t="str">
-        <f>SUBSTITUTE(B19," ","")</f>
+        <f t="shared" si="0"/>
         <v>ValidParentheses</v>
       </c>
     </row>
@@ -1424,11 +1425,11 @@
         <v>127</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0021.MergeTwoSortedLists/0021.MergeTwoSortedLists.py)</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0021.MergeTwoSortedLists/0021.MergeTwoSortedLists.md)</v>
       </c>
       <c r="F20" t="s">
@@ -1438,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="H20" t="str">
-        <f>SUBSTITUTE(B20," ","")</f>
+        <f t="shared" si="0"/>
         <v>MergeTwoSortedLists</v>
       </c>
     </row>
@@ -1453,11 +1454,11 @@
         <v>128</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0022.GenerateParentheses/0022.GenerateParentheses.py)</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0022.GenerateParentheses/0022.GenerateParentheses.md)</v>
       </c>
       <c r="F21" t="s">
@@ -1467,7 +1468,7 @@
         <v>65</v>
       </c>
       <c r="H21" t="str">
-        <f>SUBSTITUTE(B21," ","")</f>
+        <f t="shared" si="0"/>
         <v>GenerateParentheses</v>
       </c>
     </row>
@@ -1482,11 +1483,11 @@
         <v>129</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0023.MergekSortedLists/0023.MergekSortedLists.py)</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0023.MergekSortedLists/0023.MergekSortedLists.md)</v>
       </c>
       <c r="F22" t="s">
@@ -1496,7 +1497,7 @@
         <v>68</v>
       </c>
       <c r="H22" t="str">
-        <f>SUBSTITUTE(B22," ","")</f>
+        <f t="shared" si="0"/>
         <v>MergekSortedLists</v>
       </c>
     </row>
@@ -1511,11 +1512,11 @@
         <v>130</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0024.SwapNodesinPairs/0024.SwapNodesinPairs.py)</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0024.SwapNodesinPairs/0024.SwapNodesinPairs.md)</v>
       </c>
       <c r="F23" t="s">
@@ -1525,7 +1526,7 @@
         <v>23</v>
       </c>
       <c r="H23" t="str">
-        <f>SUBSTITUTE(B23," ","")</f>
+        <f t="shared" si="0"/>
         <v>SwapNodesinPairs</v>
       </c>
     </row>
@@ -1540,11 +1541,11 @@
         <v>131</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0025.ReverseNodesink-Group/0025.ReverseNodesink-Group.py)</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0025.ReverseNodesink-Group/0025.ReverseNodesink-Group.md)</v>
       </c>
       <c r="F24" t="s">
@@ -1554,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="H24" t="str">
-        <f>SUBSTITUTE(B24," ","")</f>
+        <f t="shared" si="0"/>
         <v>ReverseNodesink-Group</v>
       </c>
     </row>
@@ -1569,11 +1570,11 @@
         <v>132</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0026.RemoveDuplicatesfromSortedArray/0026.RemoveDuplicatesfromSortedArray.py)</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0026.RemoveDuplicatesfromSortedArray/0026.RemoveDuplicatesfromSortedArray.md)</v>
       </c>
       <c r="F25" t="s">
@@ -1583,7 +1584,7 @@
         <v>64</v>
       </c>
       <c r="H25" t="str">
-        <f>SUBSTITUTE(B25," ","")</f>
+        <f t="shared" si="0"/>
         <v>RemoveDuplicatesfromSortedArray</v>
       </c>
     </row>
@@ -1598,11 +1599,11 @@
         <v>133</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/0027.RemoveElement/0027.RemoveElement.py)</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/0027.RemoveElement/0027.RemoveElement.md)</v>
       </c>
       <c r="F26" t="s">
@@ -1612,7 +1613,7 @@
         <v>64</v>
       </c>
       <c r="H26" t="str">
-        <f>SUBSTITUTE(B26," ","")</f>
+        <f t="shared" si="0"/>
         <v>RemoveElement</v>
       </c>
     </row>
@@ -1624,11 +1625,11 @@
         <v>30</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/31.NextPermutation/31.NextPermutation.py)</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/31.NextPermutation/31.NextPermutation.md)</v>
       </c>
       <c r="F27" t="s">
@@ -1638,7 +1639,7 @@
         <v>31</v>
       </c>
       <c r="H27" t="str">
-        <f>SUBSTITUTE(B27," ","")</f>
+        <f t="shared" si="0"/>
         <v>NextPermutation</v>
       </c>
     </row>
@@ -1650,11 +1651,11 @@
         <v>32</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/33.SearchinRotatedSortedArray/33.SearchinRotatedSortedArray.py)</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/33.SearchinRotatedSortedArray/33.SearchinRotatedSortedArray.md)</v>
       </c>
       <c r="F28" t="s">
@@ -1664,7 +1665,7 @@
         <v>69</v>
       </c>
       <c r="H28" t="str">
-        <f>SUBSTITUTE(B28," ","")</f>
+        <f t="shared" si="0"/>
         <v>SearchinRotatedSortedArray</v>
       </c>
     </row>
@@ -1676,11 +1677,11 @@
         <v>33</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/34.FindFirstandLastPositionofElementinSortedArray/34.FindFirstandLastPositionofElementinSortedArray.py)</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/34.FindFirstandLastPositionofElementinSortedArray/34.FindFirstandLastPositionofElementinSortedArray.md)</v>
       </c>
       <c r="F29" t="s">
@@ -1690,7 +1691,7 @@
         <v>69</v>
       </c>
       <c r="H29" t="str">
-        <f>SUBSTITUTE(B29," ","")</f>
+        <f t="shared" si="0"/>
         <v>FindFirstandLastPositionofElementinSortedArray</v>
       </c>
     </row>
@@ -1702,11 +1703,11 @@
         <v>34</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/35.SearchInsertPosition/35.SearchInsertPosition.py)</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/35.SearchInsertPosition/35.SearchInsertPosition.md)</v>
       </c>
       <c r="F30" t="s">
@@ -1716,7 +1717,7 @@
         <v>69</v>
       </c>
       <c r="H30" t="str">
-        <f>SUBSTITUTE(B30," ","")</f>
+        <f t="shared" si="0"/>
         <v>SearchInsertPosition</v>
       </c>
     </row>
@@ -1728,11 +1729,11 @@
         <v>35</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/41.FirstMissingPositive/41.FirstMissingPositive.py)</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/41.FirstMissingPositive/41.FirstMissingPositive.md)</v>
       </c>
       <c r="F31" t="s">
@@ -1742,7 +1743,7 @@
         <v>31</v>
       </c>
       <c r="H31" t="str">
-        <f>SUBSTITUTE(B31," ","")</f>
+        <f t="shared" si="0"/>
         <v>FirstMissingPositive</v>
       </c>
     </row>
@@ -1754,11 +1755,11 @@
         <v>36</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/42.TrappingRainWater/42.TrappingRainWater.py)</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/42.TrappingRainWater/42.TrappingRainWater.md)</v>
       </c>
       <c r="F32" t="s">
@@ -1768,7 +1769,7 @@
         <v>70</v>
       </c>
       <c r="H32" t="str">
-        <f>SUBSTITUTE(B32," ","")</f>
+        <f t="shared" si="0"/>
         <v>TrappingRainWater</v>
       </c>
     </row>
@@ -1780,11 +1781,11 @@
         <v>37</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/47.PermutationsII/47.PermutationsII.py)</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/47.PermutationsII/47.PermutationsII.md)</v>
       </c>
       <c r="F33" t="s">
@@ -1794,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="H33" t="str">
-        <f>SUBSTITUTE(B33," ","")</f>
+        <f t="shared" si="0"/>
         <v>PermutationsII</v>
       </c>
     </row>
@@ -1806,11 +1807,11 @@
         <v>39</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/48.RotateImage/48.RotateImage.py)</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/48.RotateImage/48.RotateImage.md)</v>
       </c>
       <c r="F34" t="s">
@@ -1820,7 +1821,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="str">
-        <f>SUBSTITUTE(B34," ","")</f>
+        <f t="shared" ref="H34:H52" si="3">SUBSTITUTE(B34," ","")</f>
         <v>RotateImage</v>
       </c>
     </row>
@@ -1832,11 +1833,11 @@
         <v>40</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/49.GroupAnagrams/49.GroupAnagrams.py)</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/49.GroupAnagrams/49.GroupAnagrams.md)</v>
       </c>
       <c r="F35" t="s">
@@ -1846,7 +1847,7 @@
         <v>71</v>
       </c>
       <c r="H35" t="str">
-        <f>SUBSTITUTE(B35," ","")</f>
+        <f t="shared" si="3"/>
         <v>GroupAnagrams</v>
       </c>
     </row>
@@ -1858,11 +1859,11 @@
         <v>41</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/50.Pow(x,n)/50.Pow(x,n).py)</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/50.Pow(x,n)/50.Pow(x,n).md)</v>
       </c>
       <c r="F36" t="s">
@@ -1872,7 +1873,7 @@
         <v>72</v>
       </c>
       <c r="H36" t="str">
-        <f>SUBSTITUTE(B36," ","")</f>
+        <f t="shared" si="3"/>
         <v>Pow(x,n)</v>
       </c>
     </row>
@@ -1884,11 +1885,11 @@
         <v>42</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/53.MaximumSubarray/53.MaximumSubarray.py)</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/53.MaximumSubarray/53.MaximumSubarray.md)</v>
       </c>
       <c r="F37" t="s">
@@ -1898,7 +1899,7 @@
         <v>73</v>
       </c>
       <c r="H37" t="str">
-        <f>SUBSTITUTE(B37," ","")</f>
+        <f t="shared" si="3"/>
         <v>MaximumSubarray</v>
       </c>
     </row>
@@ -1910,11 +1911,11 @@
         <v>43</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/54.SpiralMatrix/54.SpiralMatrix.py)</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/54.SpiralMatrix/54.SpiralMatrix.md)</v>
       </c>
       <c r="F38" t="s">
@@ -1924,7 +1925,7 @@
         <v>31</v>
       </c>
       <c r="H38" t="str">
-        <f>SUBSTITUTE(B38," ","")</f>
+        <f t="shared" si="3"/>
         <v>SpiralMatrix</v>
       </c>
     </row>
@@ -1936,11 +1937,11 @@
         <v>44</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/56.MergeIntervals/56.MergeIntervals.py)</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/56.MergeIntervals/56.MergeIntervals.md)</v>
       </c>
       <c r="F39" t="s">
@@ -1950,7 +1951,7 @@
         <v>74</v>
       </c>
       <c r="H39" t="str">
-        <f>SUBSTITUTE(B39," ","")</f>
+        <f t="shared" si="3"/>
         <v>MergeIntervals</v>
       </c>
     </row>
@@ -1962,11 +1963,11 @@
         <v>45</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/57.InsertInterval/57.InsertInterval.py)</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/57.InsertInterval/57.InsertInterval.md)</v>
       </c>
       <c r="F40" t="s">
@@ -1976,7 +1977,7 @@
         <v>74</v>
       </c>
       <c r="H40" t="str">
-        <f>SUBSTITUTE(B40," ","")</f>
+        <f t="shared" si="3"/>
         <v>InsertInterval</v>
       </c>
     </row>
@@ -1988,11 +1989,11 @@
         <v>46</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/58.LengthofLastWord/58.LengthofLastWord.py)</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/58.LengthofLastWord/58.LengthofLastWord.md)</v>
       </c>
       <c r="F41" t="s">
@@ -2002,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="H41" t="str">
-        <f>SUBSTITUTE(B41," ","")</f>
+        <f t="shared" si="3"/>
         <v>LengthofLastWord</v>
       </c>
     </row>
@@ -2014,11 +2015,11 @@
         <v>47</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/59.SpiralMatrixII/59.SpiralMatrixII.py)</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/59.SpiralMatrixII/59.SpiralMatrixII.md)</v>
       </c>
       <c r="F42" t="s">
@@ -2028,7 +2029,7 @@
         <v>31</v>
       </c>
       <c r="H42" t="str">
-        <f>SUBSTITUTE(B42," ","")</f>
+        <f t="shared" si="3"/>
         <v>SpiralMatrixII</v>
       </c>
     </row>
@@ -2040,11 +2041,11 @@
         <v>48</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/61.RotateList/61.RotateList.py)</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/61.RotateList/61.RotateList.md)</v>
       </c>
       <c r="F43" t="s">
@@ -2054,7 +2055,7 @@
         <v>66</v>
       </c>
       <c r="H43" t="str">
-        <f>SUBSTITUTE(B43," ","")</f>
+        <f t="shared" si="3"/>
         <v>RotateList</v>
       </c>
     </row>
@@ -2066,11 +2067,11 @@
         <v>49</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/62.UniquePaths/62.UniquePaths.py)</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/62.UniquePaths/62.UniquePaths.md)</v>
       </c>
       <c r="F44" t="s">
@@ -2080,7 +2081,7 @@
         <v>75</v>
       </c>
       <c r="H44" t="str">
-        <f>SUBSTITUTE(B44," ","")</f>
+        <f t="shared" si="3"/>
         <v>UniquePaths</v>
       </c>
     </row>
@@ -2092,11 +2093,11 @@
         <v>50</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/63.UniquePathsII/63.UniquePathsII.py)</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/63.UniquePathsII/63.UniquePathsII.md)</v>
       </c>
       <c r="F45" t="s">
@@ -2106,7 +2107,7 @@
         <v>75</v>
       </c>
       <c r="H45" t="str">
-        <f>SUBSTITUTE(B45," ","")</f>
+        <f t="shared" si="3"/>
         <v>UniquePathsII</v>
       </c>
     </row>
@@ -2118,11 +2119,11 @@
         <v>51</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/64.MinimumPathSum/64.MinimumPathSum.py)</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/64.MinimumPathSum/64.MinimumPathSum.md)</v>
       </c>
       <c r="F46" t="s">
@@ -2132,7 +2133,7 @@
         <v>75</v>
       </c>
       <c r="H46" t="str">
-        <f>SUBSTITUTE(B46," ","")</f>
+        <f t="shared" si="3"/>
         <v>MinimumPathSum</v>
       </c>
     </row>
@@ -2144,11 +2145,11 @@
         <v>52</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/65.ValidNumber/65.ValidNumber.py)</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/65.ValidNumber/65.ValidNumber.md)</v>
       </c>
       <c r="F47" t="s">
@@ -2158,7 +2159,7 @@
         <v>62</v>
       </c>
       <c r="H47" t="str">
-        <f>SUBSTITUTE(B47," ","")</f>
+        <f t="shared" si="3"/>
         <v>ValidNumber</v>
       </c>
     </row>
@@ -2170,11 +2171,11 @@
         <v>53</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/66.PlusOne/66.PlusOne.py)</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/66.PlusOne/66.PlusOne.md)</v>
       </c>
       <c r="F48" t="s">
@@ -2184,7 +2185,7 @@
         <v>31</v>
       </c>
       <c r="H48" t="str">
-        <f>SUBSTITUTE(B48," ","")</f>
+        <f t="shared" si="3"/>
         <v>PlusOne</v>
       </c>
     </row>
@@ -2196,11 +2197,11 @@
         <v>54</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/67.AddBinary/67.AddBinary.py)</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/67.AddBinary/67.AddBinary.md)</v>
       </c>
       <c r="F49" t="s">
@@ -2210,7 +2211,7 @@
         <v>62</v>
       </c>
       <c r="H49" t="str">
-        <f>SUBSTITUTE(B49," ","")</f>
+        <f t="shared" si="3"/>
         <v>AddBinary</v>
       </c>
     </row>
@@ -2222,11 +2223,11 @@
         <v>55</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/69.Sqrt(x)/69.Sqrt(x).py)</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/69.Sqrt(x)/69.Sqrt(x).md)</v>
       </c>
       <c r="F50" t="s">
@@ -2236,7 +2237,7 @@
         <v>72</v>
       </c>
       <c r="H50" t="str">
-        <f>SUBSTITUTE(B50," ","")</f>
+        <f t="shared" si="3"/>
         <v>Sqrt(x)</v>
       </c>
     </row>
@@ -2248,11 +2249,11 @@
         <v>56</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/70.ClimbingStairs/70.ClimbingStairs.py)</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/70.ClimbingStairs/70.ClimbingStairs.md)</v>
       </c>
       <c r="F51" t="s">
@@ -2262,7 +2263,7 @@
         <v>57</v>
       </c>
       <c r="H51" t="str">
-        <f>SUBSTITUTE(B51," ","")</f>
+        <f t="shared" si="3"/>
         <v>ClimbingStairs</v>
       </c>
     </row>
@@ -2274,11 +2275,11 @@
         <v>58</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Python3](LeetCode/71.SimplifyPath/71.SimplifyPath.py)</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[解析](LeetCode/71.SimplifyPath/71.SimplifyPath.md)</v>
       </c>
       <c r="F52" t="s">
@@ -2288,7 +2289,1659 @@
         <v>67</v>
       </c>
       <c r="H52" t="str">
-        <f>SUBSTITUTE(B52," ","")</f>
+        <f t="shared" si="3"/>
+        <v>SimplifyPath</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B70CA3-4F71-4A69-8AAA-6339021217D0}">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="39.4140625" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2">
+        <f>VALUE(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"[Python3](code/"&amp;A2&amp;"."&amp;D2&amp;".py)"</f>
+        <v>[Python3](code/0001.两数之和.py)</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>"[解析](explain/"&amp;A2&amp;"."&amp;D2&amp;".md)"</f>
+        <v>[解析](explain/0001.两数之和.md)</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I52" si="0">SUBSTITUTE(C2," ","")</f>
+        <v>TwoSum</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B18" si="1">VALUE(A3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E52" si="2">"[Python3](code/"&amp;A3&amp;"."&amp;D3&amp;".py)"</f>
+        <v>[Python3](code/0002.两数相加.py)</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F52" si="3">"[解析](explain/"&amp;A3&amp;"."&amp;D3&amp;".md)"</f>
+        <v>[解析](explain/0002.两数相加.md)</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>AddTwoNumbers</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0003.无重复字符的最长子串.py)</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0003.无重复字符的最长子串.md)</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>LongestSubstringWithoutRepeatingCharacters</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0005.最长回文子串.py)</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0005.最长回文子串.md)</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>LongestPalindromicSubstring</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0006.Z 字形变换.py)</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0006.Z 字形变换.md)</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>ZigZagConversion</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0007.整数反转.py)</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0007.整数反转.md)</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>ReverseInteger</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0008.字符串转换整数 (atoi).py)</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0008.字符串转换整数 (atoi).md)</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>StringtoInteger(atoi)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0009.回文数.py)</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0009.回文数.md)</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>PalindromeNumber</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0010.正则表达式匹配.py)</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0010.正则表达式匹配.md)</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>RegularExpressionMatching</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0011.盛最多水的容器.py)</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0011.盛最多水的容器.md)</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>ContainerWithMostWater</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0012.整数转罗马数字.py)</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0012.整数转罗马数字.md)</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>IntegertoRoman</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0013.罗马数字转整数.py)</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0013.罗马数字转整数.md)</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>RomantoInteger</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0014.最长公共前缀.py)</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0014.最长公共前缀.md)</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>LongestCommonPrefix</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0015.三数之和.py)</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0015.三数之和.md)</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>3Sum</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0016.最接近的三数之和.py)</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0016.最接近的三数之和.md)</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>3SumClosest</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0017.电话号码的字母组合.py)</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0017.电话号码的字母组合.md)</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>LetterCombinationsofaPhoneNumber</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0019.删除链表的倒数第N个节点.py)</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0019.删除链表的倒数第N个节点.md)</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>RemoveNthNodeFromEndofList</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="2">
+        <f>VALUE(A19)</f>
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0020.有效的括号.py)</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0020.有效的括号.md)</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>ValidParentheses</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" ref="B20:B52" si="4">VALUE(A20)</f>
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0021. 
+合并两个有序链表.py)</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0021. 
+合并两个有序链表.md)</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>MergeTwoSortedLists</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0022.括号生成.py)</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0022.括号生成.md)</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>GenerateParentheses</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0023.合并K个升序链表.py)</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0023.合并K个升序链表.md)</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>MergekSortedLists</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0024.两两交换链表中的节点.py)</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0024.两两交换链表中的节点.md)</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>SwapNodesinPairs</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0025.K 个一组翻转链表.py)</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0025.K 个一组翻转链表.md)</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>ReverseNodesink-Group</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0026.删除排序数组中的重复项.py)</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0026.删除排序数组中的重复项.md)</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>RemoveDuplicatesfromSortedArray</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/0027.移除元素.py)</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/0027.移除元素.md)</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>RemoveElement</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/31..py)</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/31..md)</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>NextPermutation</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/33..py)</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/33..md)</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>SearchinRotatedSortedArray</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/34..py)</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/34..md)</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>FindFirstandLastPositionofElementinSortedArray</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/35..py)</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/35..md)</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>SearchInsertPosition</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/41..py)</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/41..md)</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>FirstMissingPositive</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/42..py)</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/42..md)</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>TrappingRainWater</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/47..py)</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/47..md)</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>PermutationsII</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/48..py)</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/48..md)</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>RotateImage</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/49..py)</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/49..md)</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>GroupAnagrams</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/50..py)</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/50..md)</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>Pow(x,n)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/53..py)</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/53..md)</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>MaximumSubarray</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>54</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/54..py)</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/54..md)</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>SpiralMatrix</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>56</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/56..py)</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/56..md)</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>MergeIntervals</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>57</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/57..py)</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/57..md)</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>InsertInterval</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/58..py)</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/58..md)</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>LengthofLastWord</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>59</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/59..py)</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/59..md)</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>SpiralMatrixII</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>61</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/61..py)</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/61..md)</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>RotateList</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>62</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/62..py)</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/62..md)</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>UniquePaths</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/63..py)</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/63..md)</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>UniquePathsII</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>64</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/64..py)</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/64..md)</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>MinimumPathSum</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>65</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/65..py)</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/65..md)</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>ValidNumber</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/66..py)</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/66..md)</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>PlusOne</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>67</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/67..py)</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/67..md)</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>AddBinary</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>69</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/69..py)</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/69..md)</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>Sqrt(x)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/70..py)</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/70..md)</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>ClimbingStairs</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>[Python3](code/71..py)</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[解析](explain/71..md)</v>
+      </c>
+      <c r="G52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
         <v>SimplifyPath</v>
       </c>
     </row>

--- a/生成表格.xlsx
+++ b/生成表格.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Career\StudyAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E933FA45-F4BD-449B-88F3-03BC408B876D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766481CB-EFB7-4812-9E6D-70ADC10532CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{8E49AB2F-47EE-4EA5-B237-A6A292EE92CC}"/>
+    <workbookView xWindow="4890" yWindow="120" windowWidth="14400" windowHeight="9490" activeTab="2" xr2:uid="{8E49AB2F-47EE-4EA5-B237-A6A292EE92CC}"/>
   </bookViews>
   <sheets>
     <sheet name="生成表格" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="156">
   <si>
     <t>Two Sum</t>
   </si>
@@ -474,6 +475,86 @@
   </si>
   <si>
     <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指offer22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字1的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛中的配对次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表中倒数第k个结点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组|哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表|数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表|双指针|字符串|Sliding Window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学|字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串|回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组|双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索|动态规划|回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表|双指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2303,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B70CA3-4F71-4A69-8AAA-6339021217D0}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3949,4 +4030,331 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C8B2BC-EEC3-4342-8498-4D9889AD2F1A}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.08203125" customWidth="1"/>
+    <col min="3" max="3" width="25.08203125" customWidth="1"/>
+    <col min="4" max="4" width="24.9140625" customWidth="1"/>
+    <col min="6" max="6" width="21.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"[Python3](code/"&amp;A2&amp;"."&amp;B2&amp;".py)"</f>
+        <v>[Python3](code/1.两数之和.py)</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>"[解析](explain/"&amp;A2&amp;"."&amp;B2&amp;".md)"</f>
+        <v>[解析](explain/1.两数之和.md)</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C14" si="0">"[Python3](code/"&amp;A3&amp;"."&amp;B3&amp;".py)"</f>
+        <v>[Python3](code/2.两数相加.py)</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D14" si="1">"[解析](explain/"&amp;A3&amp;"."&amp;B3&amp;".md)"</f>
+        <v>[解析](explain/2.两数相加.md)</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/3.无重复字符的最长子串.py)</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/3.无重复字符的最长子串.md)</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/12.整数转罗马数字.py)</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/12.整数转罗马数字.md)</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/22.括号生成.py)</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/22.括号生成.md)</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/26.删除排序数组中的重复项.py)</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/26.删除排序数组中的重复项.md)</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/27.移除元素.py)</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/27.移除元素.md)</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/46.全排列.py)</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/46.全排列.md)</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>77</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/77.组合.py)</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/77.组合.md)</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/131.分割回文串.py)</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/131.分割回文串.md)</v>
+      </c>
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>233</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/233.数字1的个数.py)</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/233.数字1的个数.md)</v>
+      </c>
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1688</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/1688.比赛中的配对次数.py)</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/1688.比赛中的配对次数.md)</v>
+      </c>
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/剑指offer22.链表中倒数第k个结点.py)</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/剑指offer22.链表中倒数第k个结点.md)</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/生成表格.xlsx
+++ b/生成表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Career\StudyAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766481CB-EFB7-4812-9E6D-70ADC10532CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC5FF28-979F-43A7-9983-2D2109AB1FE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="120" windowWidth="14400" windowHeight="9490" activeTab="2" xr2:uid="{8E49AB2F-47EE-4EA5-B237-A6A292EE92CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{8E49AB2F-47EE-4EA5-B237-A6A292EE92CC}"/>
   </bookViews>
   <sheets>
     <sheet name="生成表格" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="159">
   <si>
     <t>Two Sum</t>
   </si>
@@ -555,6 +555,16 @@
   </si>
   <si>
     <t>链表|双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径总和</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>树|深度优先搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4034,10 +4044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C8B2BC-EEC3-4342-8498-4D9889AD2F1A}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4097,11 +4107,11 @@
         <v>110</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C14" si="0">"[Python3](code/"&amp;A3&amp;"."&amp;B3&amp;".py)"</f>
+        <f t="shared" ref="C3:C15" si="0">"[Python3](code/"&amp;A3&amp;"."&amp;B3&amp;".py)"</f>
         <v>[Python3](code/2.两数相加.py)</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D14" si="1">"[解析](explain/"&amp;A3&amp;"."&amp;B3&amp;".md)"</f>
+        <f t="shared" ref="D3:D15" si="1">"[解析](explain/"&amp;A3&amp;"."&amp;B3&amp;".md)"</f>
         <v>[解析](explain/2.两数相加.md)</v>
       </c>
       <c r="E3" t="s">
@@ -4351,6 +4361,28 @@
       </c>
       <c r="F14" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>[Python3](code/112.路径总和.py)</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[解析](explain/112.路径总和.md)</v>
+      </c>
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
